--- a/profs/xlsx/Расписание Ушаков Андрей Николаевич.xlsx
+++ b/profs/xlsx/Расписание Ушаков Андрей Николаевич.xlsx
@@ -69,6 +69,11 @@
     <t xml:space="preserve">ауд.322(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛК, 3О-406С-15 (04.09-25.12) </t>
   </si>
   <si>
+    <t xml:space="preserve">ауд.304(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛР, М3О-306С-16 (25.12) 
+---
+ауд.304(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛР, М3О-306С-16 (04.09-27.11) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Среда</t>
   </si>
   <si>
@@ -79,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">ауд.322(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛК, М3О-306С-16 (14.09-23.11) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.304(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛР, М3О-306С-16 (14.09-21.12) </t>
   </si>
   <si>
     <t xml:space="preserve">ауд.304(3), Микропроцессорная техника и измерительно-вычеслительные комплексы, ЛР, 3О-406С-15 (07.09-02.11) </t>
@@ -392,19 +394,23 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="70.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -426,7 +432,7 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -448,18 +454,14 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -539,7 +541,7 @@
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="53">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
@@ -551,8 +553,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
